--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2538556.197202675</v>
+        <v>2536058.465278989</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554855</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341471.724576151</v>
+        <v>9341471.724576147</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616892</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716178</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>86.60995015598287</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>140.0904402661881</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261793</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323775</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.2990049919962</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.091256615611</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973764</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>99.95211278732188</v>
+        <v>163.8657172912022</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>236.068273074019</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616892</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241061233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>278.9411368579714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261793</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323775</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.2990049919962</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.091256615611</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973764</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>196.4388895929831</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.5339758907975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.6756319979749</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336.5377421553895</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.35124001368204</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.6271126132354</v>
+        <v>174.8605623338593</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
         <v>225.7478006422472</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012119</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>35.55160172423381</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>64.40601307691422</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.611867715124</v>
+        <v>1164.073118372772</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.649350774713</v>
+        <v>795.1106014323605</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.383652167962</v>
+        <v>795.1106014323605</v>
       </c>
       <c r="E2" t="n">
-        <v>882.5953995697178</v>
+        <v>795.1106014323605</v>
       </c>
       <c r="F2" t="n">
-        <v>471.6094947801102</v>
+        <v>788.165100683157</v>
       </c>
       <c r="G2" t="n">
-        <v>458.5500084304446</v>
+        <v>371.0652102930874</v>
       </c>
       <c r="H2" t="n">
-        <v>140.2028857318408</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437001919</v>
+        <v>156.0982996717718</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745176</v>
+        <v>237.1518427762783</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792030877</v>
+        <v>374.6076920999127</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084354</v>
+        <v>1004.24164498119</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039457</v>
+        <v>1629.431735936304</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780589</v>
+        <v>2174.5933726908</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993009</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.904379724215</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.904379724215</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.211707779246</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.211707779246</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.211707779246</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.211707779246</v>
+        <v>1305.578613591144</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.211707779246</v>
+        <v>1164.073118372772</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120991</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309722</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.044442269721</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642654</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911506</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.824552964035</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815832</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895427</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L3" t="n">
-        <v>351.9746989818289</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M3" t="n">
-        <v>990.9111639625384</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944282</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149948</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877475</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267653</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373097</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880797</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162598</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930856</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202654</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997121</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.2203116100035</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C4" t="n">
-        <v>368.2203116100035</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D4" t="n">
-        <v>368.2203116100035</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2203116100035</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>221.3303641120932</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919701</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482252</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628034</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543599</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968916888</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327062</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421833</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421833</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421833</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421833</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="U4" t="n">
-        <v>758.599211735168</v>
+        <v>627.8770298795112</v>
       </c>
       <c r="V4" t="n">
-        <v>657.637481646964</v>
+        <v>462.3561033227413</v>
       </c>
       <c r="W4" t="n">
-        <v>368.2203116100035</v>
+        <v>462.3561033227413</v>
       </c>
       <c r="X4" t="n">
-        <v>368.2203116100035</v>
+        <v>234.3665524247239</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.2203116100035</v>
+        <v>234.3665524247239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.779946879164</v>
+        <v>817.123916799381</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.817429938752</v>
+        <v>578.6711157145133</v>
       </c>
       <c r="D5" t="n">
-        <v>862.5517313320017</v>
+        <v>578.6711157145133</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7634787337574</v>
+        <v>192.8828631162691</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414988</v>
+        <v>185.9373623670656</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944843</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944843</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437001919</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745176</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L5" t="n">
-        <v>704.9390792030877</v>
+        <v>928.0149705942795</v>
       </c>
       <c r="M5" t="n">
-        <v>1334.573032084354</v>
+        <v>1112.630525317652</v>
       </c>
       <c r="N5" t="n">
-        <v>1959.763123039457</v>
+        <v>1737.820616272767</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780589</v>
+        <v>2282.982253027263</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993009</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215017</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215017</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215017</v>
+        <v>2264.560549649957</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215017</v>
+        <v>2264.560549649957</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.143761215017</v>
+        <v>1933.497662306387</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.385037116056</v>
+        <v>1580.729007036273</v>
       </c>
       <c r="X5" t="n">
-        <v>1979.919278854976</v>
+        <v>1207.263248775193</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.779946879164</v>
+        <v>817.123916799381</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120999</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.978851930973</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697217</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642661</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911511</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640355</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815879</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944843</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448319955</v>
+        <v>237.3598989302719</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029099</v>
+        <v>740.3427331273829</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009809</v>
+        <v>918.2311849956011</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.045718791108</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149948</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877475</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267653</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373097</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880797</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162599</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930856</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202655</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997122</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232168</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150304</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871235</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923947</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919701</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482252</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628034</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543599</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968916888</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327062</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421833</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421833</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421833</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421833</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421833</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421833</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421833</v>
+        <v>420.0773913233841</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.751684421833</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.2224158452701</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1132.930794153087</v>
+        <v>938.3155355304748</v>
       </c>
       <c r="C8" t="n">
-        <v>763.9682772126755</v>
+        <v>569.3530185900631</v>
       </c>
       <c r="D8" t="n">
-        <v>405.702578605925</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="E8" t="n">
-        <v>405.702578605925</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765278</v>
+        <v>469.8058693580567</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786759</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>156.51549216246</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086592</v>
+        <v>784.1537554695192</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.046561391971</v>
+        <v>1415.871566452831</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.354229451817</v>
+        <v>2001.436188046361</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453093</v>
+        <v>2171.605213363321</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.92025970262</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724215</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724215</v>
+        <v>2382.212676469361</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724215</v>
+        <v>2051.14978912579</v>
       </c>
       <c r="W8" t="n">
-        <v>2283.1357244541</v>
+        <v>1698.381133855676</v>
       </c>
       <c r="X8" t="n">
-        <v>1909.669966193021</v>
+        <v>1324.915375594597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1519.530634217209</v>
+        <v>1324.915375594597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.1397720210902</v>
+        <v>966.1397720210899</v>
       </c>
       <c r="C9" t="n">
-        <v>791.6867427399632</v>
+        <v>791.6867427399629</v>
       </c>
       <c r="D9" t="n">
-        <v>642.7523330787119</v>
+        <v>642.7523330787117</v>
       </c>
       <c r="E9" t="n">
-        <v>483.5148780732563</v>
+        <v>483.5148780732562</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9803201001413</v>
+        <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.6229446041678</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>171.37733945138</v>
+        <v>147.8775725337508</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>477.3059768395606</v>
       </c>
       <c r="L9" t="n">
-        <v>843.2160653301389</v>
+        <v>981.6675167056792</v>
       </c>
       <c r="M9" t="n">
-        <v>1483.761414797244</v>
+        <v>1622.212866172784</v>
       </c>
       <c r="N9" t="n">
-        <v>2136.147748778987</v>
+        <v>1820.869607825449</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.660061447747</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
         <v>2404.349688975046</v>
@@ -4905,10 +4905,10 @@
         <v>2635.063145035514</v>
       </c>
       <c r="R9" t="n">
-        <v>2613.951245437701</v>
+        <v>2613.9512454377</v>
       </c>
       <c r="S9" t="n">
-        <v>2464.484456300336</v>
+        <v>2464.484456300335</v>
       </c>
       <c r="T9" t="n">
         <v>2267.495160460423</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150304</v>
+        <v>109.6385320527489</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871235</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923947</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944843</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7660171900941</v>
+        <v>153.766017190094</v>
       </c>
       <c r="L10" t="n">
-        <v>338.5990120909125</v>
+        <v>338.5990120909124</v>
       </c>
       <c r="M10" t="n">
-        <v>543.8686128101505</v>
+        <v>543.8686128101504</v>
       </c>
       <c r="N10" t="n">
-        <v>749.6919776462548</v>
+        <v>749.6919776462546</v>
       </c>
       <c r="O10" t="n">
-        <v>923.7868730348537</v>
+        <v>923.7868730348534</v>
       </c>
       <c r="P10" t="n">
         <v>1049.234449633469</v>
@@ -4987,25 +4987,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>845.2124843062343</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>619.5832876185992</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>330.431111196279</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>330.431111196279</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>330.431111196279</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>330.431111196279</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.2224158452701</v>
+        <v>109.6385320527489</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.3159148556</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.13902995695</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058932</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819269</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111745</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075556</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332366</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014762</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355924</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,58 +5568,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637334</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890289</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444899</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684189</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060774</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060774</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
         <v>2244.643795685161</v>
@@ -5637,7 +5637,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908937</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908937</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908937</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908937</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832674</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,16 +5771,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,52 +6692,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83.99314676944165</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,10 +7991,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532984</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.83917802654976</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>97.80125903596689</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>178.1043206132612</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792357</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>318.8449852026878</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>368.9308216532984</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.83917802654976</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>323.3177003119777</v>
       </c>
       <c r="O6" t="n">
-        <v>316.338863875895</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>395.1822310116646</v>
       </c>
       <c r="O8" t="n">
-        <v>355.2148279639557</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>102.3538970397734</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>207.2532561184395</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243217</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.166178430547006e-11</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.656456738330659e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.95754073885942</v>
+        <v>43.7240910182355</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856521</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392193054</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>45.71423459433173</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>161.3036423121229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>854309.5078060387</v>
+        <v>854309.5078060367</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>854309.5078060387</v>
+        <v>854309.5078060367</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>853961.3293420727</v>
+        <v>853961.3293420726</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792457.4303828666</v>
+        <v>792457.430382867</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="G2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222263</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448487985</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329919</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.949842150381301e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821407</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663864</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408984</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408984</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660024</v>
+        <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531694485</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695113</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695042</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695042</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695042</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695031</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695065</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695028</v>
+        <v>6287.480531695056</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538413</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538413</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917789</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424541.0221436897</v>
+        <v>-424541.0221437017</v>
       </c>
       <c r="C6" t="n">
-        <v>365304.9109785366</v>
+        <v>365304.9109785395</v>
       </c>
       <c r="D6" t="n">
-        <v>363189.9191711519</v>
+        <v>363189.9191711653</v>
       </c>
       <c r="E6" t="n">
-        <v>-257495.6678288392</v>
+        <v>-257530.4057542753</v>
       </c>
       <c r="F6" t="n">
-        <v>518128.6044041526</v>
+        <v>518093.866478717</v>
       </c>
       <c r="G6" t="n">
-        <v>518128.6044041478</v>
+        <v>518093.866478717</v>
       </c>
       <c r="H6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.8664787167</v>
       </c>
       <c r="I6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.866478717</v>
       </c>
       <c r="J6" t="n">
-        <v>345711.4630220119</v>
+        <v>345676.7250965766</v>
       </c>
       <c r="K6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.866478717</v>
       </c>
       <c r="L6" t="n">
-        <v>518128.6044041528</v>
+        <v>518093.8664787169</v>
       </c>
       <c r="M6" t="n">
-        <v>390104.4869377663</v>
+        <v>390069.7490123303</v>
       </c>
       <c r="N6" t="n">
-        <v>518128.6044041527</v>
+        <v>518093.866478717</v>
       </c>
       <c r="O6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.866478717</v>
       </c>
       <c r="P6" t="n">
-        <v>518128.6044041525</v>
+        <v>518093.866478717</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053244</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053244</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310537</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310537</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310537</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053244</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98190063274069</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.366462912410498e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310537</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685947</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310539</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685942</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310537</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685947</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.34824038270636</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241061233</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011797</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723321</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>246.1474983898655</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465903</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884222</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063495</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.414960037128</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937738</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207159</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>152.1855305365061</v>
+        <v>88.27192603262583</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>129.2046186969885</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716178</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386892</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011797</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723321</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>70.29983185944161</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465903</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884222</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063495</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.414960037128</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937738</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207159</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>29.27076579605409</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05067746129728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.0074096227081</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>70.33830358632196</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27907,10 +27907,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.8955810849458</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29812,10 +29812,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966126</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414935</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171667</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.477214400964</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071001</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160723</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915336987</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815634987</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129667</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728654</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.348665360516</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170436</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506566</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179922</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172901</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366169</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387853</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817733</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401169</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976503</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623782</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394017</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351512</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627491956</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789662</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190921</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064693</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822686</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445216</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830066</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606025995</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849306</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303629</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603782</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546564</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177193</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609657</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203235</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953834</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.785816932453</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550397</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004153</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319847</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565612</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232705</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966126</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414935</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171667</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.477214400964</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071001</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160723</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915336987</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815634987</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129667</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728654</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.348665360516</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170436</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506566</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179922</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172901</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366169</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387853</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817733</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401169</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976503</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623782</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394017</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351512</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627491956</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789662</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190921</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064693</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822686</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445216</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830066</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606025995</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849306</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303629</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603782</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546564</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177193</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609657</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203235</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953834</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.785816932453</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550397</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004153</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319847</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565612</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232705</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357562001</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862155</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071819</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437275</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704768</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>704.1404939038093</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987427767</v>
+        <v>104.4244566437248</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576211958</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965354</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992584</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423788919</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445784</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305175959</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548606647</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329128</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>235.0243826184709</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673833</v>
+        <v>357.7896255306534</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310537</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814807</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045731</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307058</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287736</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780354</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228063</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995521</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.093387209423</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973465</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903809587</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987427767</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576211958</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965354</v>
+        <v>457.6892774487831</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992584</v>
+        <v>186.4803583064373</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423788919</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>538.7989603445784</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305175959</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548606647</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358699</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859632</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673833</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518179</v>
+        <v>522.3129273638046</v>
       </c>
       <c r="O6" t="n">
-        <v>475.9363821806461</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045731</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307058</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287736</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780354</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228063</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995521</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.093387209423</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973465</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903809587</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>591.4794157510407</v>
       </c>
       <c r="O8" t="n">
-        <v>527.1027323245208</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>96.12069185784502</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>345.8690116898476</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310537</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261451921</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728667</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326294861</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367485</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641972</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238486</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.484575999283</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561466</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>572.7987818204761</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
